--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Transparencia\Tercer Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EDD36A-8097-4C8D-9206-AFEE0E91F26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0BAD3E-6E38-426A-A30B-13980769DB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>45731</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Denominación del área responsable de la elaboración y/o presentación del informe</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Descripción de la temática que se aborda en el informe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundamento legal </t>
   </si>
   <si>
@@ -145,24 +148,51 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Informe de actividades del Titular del Organismo periodo enero-marzo 2023 y acumulado en su caso</t>
+  </si>
+  <si>
+    <t>Rectoría</t>
+  </si>
+  <si>
+    <t>Se proporciona la información relativa al estado que guarda la Universidad en los aspectos estudiantil, docente, de internacionalización, investigación, evaluación. De igual forma se informa respecto a la administración de la institución contemplando mantenimiento, obras, capacitación, infraestructura, mencionando también las actividades relevantes que se han realizado para cumplir con los Objetivos de Desarrollo Sostenible Agenda 2030.</t>
+  </si>
+  <si>
+    <t>Artículos 37, 38, 56 y 65 de los Lineamientos para la celebración de la sesiones de los Órganos de Gobierno, las Asesorías Técnicas y aquellas que deban realizarse para la Rectoría del Poder Ejecutivo de los Organismos Descentralizados de la Administración Pública del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/19/Informe%20de%20actividades%20enero-marzo%202023.pdf</t>
+  </si>
+  <si>
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Descripción de la temática que se aborda en el informe</t>
-  </si>
-  <si>
-    <t>No se ha celebrado ninguna sesión ordinaria de la Junta Directiva de la Universidad Politécnica de Pachuca, por lo que el informe de actividades del Rector no ha sido presentado y aprobado, según lo estipulado en los artículos 24 y 52 de los Lineamientos para la celebración de la sesiones de los Órganos de Gobierno, las Asesorías Técnicas y aquellas que deban realizarse para la Rectoría del Poder Ejecutivo de los Organismos Descentralizados de la Administración Pública del Estado de Hidalgo.</t>
+    <t>Informe de actividades del Titular del Organismo periodo abril-junio 2023 y acumulado en su caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/19/Informe%20de%20activ.%20abril-junio%202023.pdf </t>
+  </si>
+  <si>
+    <t>Informe de actividades del Titular del Organismo periodo julio-septiembre 2023 y acumulado en su caso</t>
+  </si>
+  <si>
+    <t>https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/19/Informe%20de%20actividades%20julio-sept.%202023.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,24 +201,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,35 +259,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,44 +334,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -363,14 +399,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -398,9 +451,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,175 +479,171 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,17 +651,17 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="6" max="6" width="117.85546875" customWidth="1"/>
+    <col min="7" max="7" width="94" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="153.5703125" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -604,38 +670,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -726,22 +792,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -760,62 +826,158 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
-      <c r="B8" s="9">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45233</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3">
-        <v>45209</v>
+        <v>45301</v>
       </c>
       <c r="M8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="N8" s="6" t="s">
+        <v>45301</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45245</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M9" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45280</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M10" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -827,6 +989,11 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{158CBC16-6CED-4A94-8448-0B3C3A3202FA}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{6AA7C51D-7AC9-40C3-877F-F59165D437FE}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{AB9707C4-81F9-4DE1-9D44-9FE40D114943}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>